--- a/Data/t9.1.xlsx
+++ b/Data/t9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C7EBAF4-18BA-4FC8-B320-37CAF7935F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4310BC-A2D6-47D0-B9EE-A64E16CB9BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2D75A799-EEEB-4F32-8AED-9C629353E0E5}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="17">
   <si>
     <t>Indicador</t>
-  </si>
-  <si>
-    <t>Margem de comercialização (total)*</t>
   </si>
   <si>
     <t>Pessoal ocupado em 31/12</t>
@@ -63,36 +60,6 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Pessoal ocupado em 31/13</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/14</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/15</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/16</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/17</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/18</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/19</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/20</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/21</t>
-  </si>
-  <si>
-    <t>Pessoal ocupado em 31/22</t>
-  </si>
-  <si>
     <t>Participação da receita bruta de Sergipe no Brasil</t>
   </si>
   <si>
@@ -106,6 +73,9 @@
   </si>
   <si>
     <t>Participação da receita bruta de Sergipe no Nordeste</t>
+  </si>
+  <si>
+    <t>Margem de comercialização</t>
   </si>
 </sst>
 </file>
@@ -459,24 +429,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67927283-88DF-4B6F-9FCD-CC086594AD06}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D100"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,10 +457,10 @@
         <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>22799.435159173823</v>
@@ -498,10 +471,10 @@
         <v>2012</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>26078.271808057325</v>
@@ -512,10 +485,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>26969.20870768237</v>
@@ -526,10 +499,10 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>27856.533501202452</v>
@@ -540,10 +513,10 @@
         <v>2015</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>24860.634933643163</v>
@@ -554,10 +527,10 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>24642.777145795731</v>
@@ -568,10 +541,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>25283.634650216824</v>
@@ -582,10 +555,10 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>26727.161049183578</v>
@@ -596,10 +569,10 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>27758.064982320819</v>
@@ -610,10 +583,10 @@
         <v>2020</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>26286.715643999996</v>
@@ -624,10 +597,10 @@
         <v>2021</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>31141.519999999997</v>
@@ -638,10 +611,10 @@
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>3514.194277887012</v>
@@ -652,10 +625,10 @@
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>3580.1272180078281</v>
@@ -666,10 +639,10 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>3392.2080941179852</v>
@@ -680,10 +653,10 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>3544.0033123663916</v>
@@ -694,10 +667,10 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2883.3310593883425</v>
@@ -708,10 +681,10 @@
         <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>2391.3899505318432</v>
@@ -722,10 +695,10 @@
         <v>2017</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>2422.322826425599</v>
@@ -736,10 +709,10 @@
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>2529.379712656671</v>
@@ -750,10 +723,10 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>2533.1000290053698</v>
@@ -764,10 +737,10 @@
         <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2586.7183299999992</v>
@@ -778,10 +751,10 @@
         <v>2021</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>3332.2109999999998</v>
@@ -792,10 +765,10 @@
         <v>2011</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>6389.997693218028</v>
@@ -806,10 +779,10 @@
         <v>2012</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>7776.5275318521508</v>
@@ -820,10 +793,10 @@
         <v>2013</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>8106.0952910827609</v>
@@ -834,10 +807,10 @@
         <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>7993.2742433031472</v>
@@ -848,10 +821,10 @@
         <v>2015</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>7086.6474171879399</v>
@@ -862,10 +835,10 @@
         <v>2016</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>7478.2565951347706</v>
@@ -876,10 +849,10 @@
         <v>2017</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>7254.1154551804957</v>
@@ -890,10 +863,10 @@
         <v>2018</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>8110.7806623368906</v>
@@ -904,10 +877,10 @@
         <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>7927.3392879185485</v>
@@ -918,10 +891,10 @@
         <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>8535.4067959999993</v>
@@ -932,10 +905,10 @@
         <v>2021</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>10547.486999999999</v>
@@ -946,10 +919,10 @@
         <v>2011</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>12895.243188068784</v>
@@ -960,10 +933,10 @@
         <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>14721.617058197347</v>
@@ -974,10 +947,10 @@
         <v>2013</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>15470.905322481622</v>
@@ -988,10 +961,10 @@
         <v>2014</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>16319.255945532912</v>
@@ -1002,10 +975,10 @@
         <v>2015</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>14890.656457066885</v>
@@ -1016,10 +989,10 @@
         <v>2016</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>14773.130600129116</v>
@@ -1030,10 +1003,10 @@
         <v>2017</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>15607.196368610732</v>
@@ -1044,10 +1017,10 @@
         <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>16087.000674190014</v>
@@ -1058,10 +1031,10 @@
         <v>2019</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>17297.625665396903</v>
@@ -1072,10 +1045,10 @@
         <v>2020</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>15164.590517999999</v>
@@ -1086,10 +1059,10 @@
         <v>2021</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>17261.822</v>
@@ -1100,10 +1073,10 @@
         <v>2011</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>4264.7649192616691</v>
@@ -1114,10 +1087,10 @@
         <v>2012</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>5028.6219104961774</v>
@@ -1128,10 +1101,10 @@
         <v>2013</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>5387.5131147815291</v>
@@ -1142,10 +1115,10 @@
         <v>2014</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>5645.613835246284</v>
@@ -1156,10 +1129,10 @@
         <v>2015</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>5167.4562040831433</v>
@@ -1170,10 +1143,10 @@
         <v>2016</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>5167.4811691760797</v>
@@ -1184,10 +1157,10 @@
         <v>2017</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>4940.666186443038</v>
@@ -1198,10 +1171,10 @@
         <v>2018</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>5271.6666882266254</v>
@@ -1212,10 +1185,10 @@
         <v>2019</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>5058.0297110096171</v>
@@ -1226,10 +1199,10 @@
         <v>2020</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>5370.3920339999995</v>
@@ -1240,10 +1213,10 @@
         <v>2021</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>5980.4170000000004</v>
@@ -1254,10 +1227,10 @@
         <v>2011</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>66237</v>
@@ -1268,10 +1241,10 @@
         <v>2012</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>71804</v>
@@ -1282,10 +1255,10 @@
         <v>2013</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>73435</v>
@@ -1296,10 +1269,10 @@
         <v>2014</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>76279</v>
@@ -1310,10 +1283,10 @@
         <v>2015</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>71037</v>
@@ -1324,10 +1297,10 @@
         <v>2016</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>71553</v>
@@ -1338,10 +1311,10 @@
         <v>2017</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>70912</v>
@@ -1352,10 +1325,10 @@
         <v>2018</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>70403</v>
@@ -1366,10 +1339,10 @@
         <v>2019</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>68814</v>
@@ -1380,10 +1353,10 @@
         <v>2020</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>68335</v>
@@ -1394,10 +1367,10 @@
         <v>2021</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>69677</v>
@@ -1408,10 +1381,10 @@
         <v>2011</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>9907</v>
@@ -1422,10 +1395,10 @@
         <v>2012</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>9990</v>
@@ -1436,10 +1409,10 @@
         <v>2013</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>11265</v>
@@ -1450,10 +1423,10 @@
         <v>2014</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>11326</v>
@@ -1464,10 +1437,10 @@
         <v>2015</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>10715</v>
@@ -1478,10 +1451,10 @@
         <v>2016</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>11224</v>
@@ -1492,10 +1465,10 @@
         <v>2017</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>10634</v>
@@ -1506,10 +1479,10 @@
         <v>2018</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>11121</v>
@@ -1520,10 +1493,10 @@
         <v>2019</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>10356</v>
@@ -1534,10 +1507,10 @@
         <v>2020</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>9480</v>
@@ -1548,10 +1521,10 @@
         <v>2021</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>10316</v>
@@ -1562,10 +1535,10 @@
         <v>2011</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79">
         <v>0.54974673447372246</v>
@@ -1576,10 +1549,10 @@
         <v>2012</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80">
         <v>0.57966855850425159</v>
@@ -1590,10 +1563,10 @@
         <v>2013</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81">
         <v>0.56421438422058534</v>
@@ -1604,10 +1577,10 @@
         <v>2014</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82">
         <v>0.56158654314633583</v>
@@ -1618,10 +1591,10 @@
         <v>2015</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83">
         <v>0.53128998566543972</v>
@@ -1632,10 +1605,10 @@
         <v>2016</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84">
         <v>0.53739058027681352</v>
@@ -1646,10 +1619,10 @@
         <v>2017</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85">
         <v>0.54784284266311534</v>
@@ -1660,10 +1633,10 @@
         <v>2018</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86">
         <v>0.54942112234291485</v>
@@ -1674,10 +1647,10 @@
         <v>2019</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87">
         <v>0.55248022296029664</v>
@@ -1688,10 +1661,10 @@
         <v>2020</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88">
         <v>0.50310368142666739</v>
@@ -1702,10 +1675,10 @@
         <v>2021</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <v>0.51785125527101905</v>
@@ -1716,10 +1689,10 @@
         <v>2011</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90">
         <v>3.6804654194015378</v>
@@ -1730,10 +1703,10 @@
         <v>2012</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91">
         <v>3.8262631802330609</v>
@@ -1744,10 +1717,10 @@
         <v>2013</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D92">
         <v>3.7210773898906675</v>
@@ -1758,10 +1731,10 @@
         <v>2014</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93">
         <v>3.6355887495770149</v>
@@ -1772,10 +1745,10 @@
         <v>2015</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94">
         <v>3.4443545281072243</v>
@@ -1786,10 +1759,10 @@
         <v>2016</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95">
         <v>3.5003364156973067</v>
@@ -1800,10 +1773,10 @@
         <v>2017</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>3.5347567624321767</v>
@@ -1814,10 +1787,10 @@
         <v>2018</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97">
         <v>3.5966777795563454</v>
@@ -1828,10 +1801,10 @@
         <v>2019</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98">
         <v>3.7253337865859177</v>
@@ -1842,10 +1815,10 @@
         <v>2020</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99">
         <v>3.4296312795795942</v>
@@ -1856,10 +1829,10 @@
         <v>2021</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100">
         <v>3.5786146314457929</v>

--- a/Data/t9.1.xlsx
+++ b/Data/t9.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5642143842205853</v>
+        <v>0.5642143842205852</v>
       </c>
     </row>
     <row r="6">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5312899856654397</v>
+        <v>0.5312899856654398</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5163836224785561</v>
+        <v>0.5161495701687923</v>
       </c>
     </row>
     <row r="14">
@@ -686,16 +686,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5213861972978241</v>
+        <v>0.5230462514942121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Participação da receita bruta de Sergipe no Nordeste</t>
+          <t>Participação da receita bruta de Sergipe no Brasil</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -704,12 +704,12 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.802408682044248</v>
+        <v>0.508084889302138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -722,12 +722,12 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.680465419401538</v>
+        <v>3.802408682044248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.82626318023306</v>
+        <v>3.680465419401538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -758,12 +758,12 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.721077389890667</v>
+        <v>3.826263180233061</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.635588749577015</v>
+        <v>3.721077389890667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -794,12 +794,12 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.444354528107225</v>
+        <v>3.635588749577015</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -812,12 +812,12 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.500336415697307</v>
+        <v>3.444354528107224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -830,12 +830,12 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.534756762432176</v>
+        <v>3.500336415697306</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -848,12 +848,12 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.596677779556346</v>
+        <v>3.534756762432177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -866,12 +866,12 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3.725333786585917</v>
+        <v>3.596677779556345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -884,12 +884,12 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.434550137056881</v>
+        <v>3.725333786585917</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -902,12 +902,12 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.569545476319487</v>
+        <v>3.434550137056881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -920,48 +920,48 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.607905239935737</v>
+        <v>3.570673534280095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comércio de veículos, peças e motocicletas</t>
+          <t>Participação da receita bruta de Sergipe no Nordeste</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>%</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1746906</v>
+        <v>3.608551214693791</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comércio de veículos, peças e motocicletas</t>
+          <t>Participação da receita bruta de Sergipe no Nordeste</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>%</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1944934</v>
+        <v>3.468685550616414</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -974,12 +974,12 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2097112</v>
+        <v>1746906</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -992,12 +992,12 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2104483</v>
+        <v>1944934</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1010,12 +1010,12 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2339533</v>
+        <v>2097112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2106548</v>
+        <v>2104483</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1046,12 +1046,12 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1856998</v>
+        <v>2339533</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1064,12 +1064,12 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1936460</v>
+        <v>2106548</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1082,12 +1082,12 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2097781</v>
+        <v>1856998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1100,12 +1100,12 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2191342</v>
+        <v>1936460</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1118,12 +1118,12 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2339691</v>
+        <v>2097781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1136,12 +1136,12 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3325609</v>
+        <v>2191342</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1154,16 +1154,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3692024</v>
+        <v>2339691</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comércio por atacado</t>
+          <t>Comércio de veículos, peças e motocicletas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1172,16 +1172,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3191060</v>
+        <v>3337276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comércio por atacado</t>
+          <t>Comércio de veículos, peças e motocicletas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3536550</v>
+        <v>3687136</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Comércio por atacado</t>
+          <t>Comércio de veículos, peças e motocicletas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1208,12 +1208,12 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4555215</v>
+        <v>4010211</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1226,12 +1226,12 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5028919</v>
+        <v>3191060</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1244,12 +1244,12 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5276668</v>
+        <v>3536550</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1262,12 +1262,12 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5177471</v>
+        <v>4555215</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1280,12 +1280,12 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5807128</v>
+        <v>5028919</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1298,12 +1298,12 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5799105</v>
+        <v>5276668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1316,12 +1316,12 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6726804</v>
+        <v>5177471</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1334,12 +1334,12 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6817682</v>
+        <v>5807128</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1352,12 +1352,12 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7772889</v>
+        <v>5799105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1370,12 +1370,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10559950</v>
+        <v>6726804</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1388,16 +1388,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13977553</v>
+        <v>6817682</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Comércio varejista</t>
+          <t>Comércio por atacado</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1406,16 +1406,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6671043</v>
+        <v>7772889</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Comércio varejista</t>
+          <t>Comércio por atacado</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7136884</v>
+        <v>10551795</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Comércio varejista</t>
+          <t>Comércio por atacado</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1442,16 +1442,16 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8623403</v>
+        <v>13808944</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Comércio varejista</t>
+          <t>Comércio por atacado</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1460,12 +1460,12 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9597954</v>
+        <v>13606266</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1478,12 +1478,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10772969</v>
+        <v>6671043</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1496,12 +1496,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10879043</v>
+        <v>7136884</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1514,12 +1514,12 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>11471853</v>
+        <v>8623403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1532,12 +1532,12 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>12476748</v>
+        <v>9597954</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1550,12 +1550,12 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>13342008</v>
+        <v>10772969</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1568,12 +1568,12 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>15004153</v>
+        <v>10879043</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1586,12 +1586,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>13769426</v>
+        <v>11471853</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>17225002</v>
+        <v>12476748</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1622,16 +1622,16 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>20063899</v>
+        <v>13342008</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Margem de comercialização</t>
+          <t>Comércio varejista</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2132533</v>
+        <v>15004153</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Margem de comercialização</t>
+          <t>Comércio varejista</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1658,16 +1658,16 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2360338</v>
+        <v>13769426</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Margem de comercialização</t>
+          <t>Comércio varejista</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1676,16 +1676,16 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2945589</v>
+        <v>17206182</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Margem de comercialização</t>
+          <t>Comércio varejista</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1694,16 +1694,16 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3342345</v>
+        <v>20029132</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Margem de comercialização</t>
+          <t>Comércio varejista</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1712,12 +1712,12 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3726887</v>
+        <v>21493293</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1730,12 +1730,12 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3775319</v>
+        <v>2132533</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4012730</v>
+        <v>2360338</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1766,12 +1766,12 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3949681</v>
+        <v>2945589</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1784,12 +1784,12 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4372140</v>
+        <v>3342345</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1802,12 +1802,12 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4374670</v>
+        <v>3726887</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1820,12 +1820,12 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4864637</v>
+        <v>3775319</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1838,12 +1838,12 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5972167</v>
+        <v>4012730</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1856,120 +1856,120 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7477589</v>
+        <v>3949681</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
+          <t>Margem de comercialização</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pessoas</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>62869</v>
+        <v>4372140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
+          <t>Margem de comercialização</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pessoas</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>66237</v>
+        <v>4374670</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
+          <t>Margem de comercialização</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Pessoas</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>71804</v>
+        <v>4864637</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
+          <t>Margem de comercialização</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pessoas</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>73435</v>
+        <v>5970082</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
+          <t>Margem de comercialização</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pessoas</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>76279</v>
+        <v>7266823</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pessoal ocupado em 31/12</t>
+          <t>Margem de comercialização</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Pessoas</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>71037</v>
+        <v>7556622</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>71553</v>
+        <v>62869</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2000,12 +2000,12 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>70912</v>
+        <v>66237</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2018,12 +2018,12 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>70403</v>
+        <v>71804</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>68814</v>
+        <v>73435</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2054,12 +2054,12 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>68447</v>
+        <v>76279</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2072,12 +2072,12 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>69679</v>
+        <v>71037</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2090,138 +2090,138 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>74961</v>
+        <v>71553</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Receita bruta de revenda e de comissões sobre venda</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>11609009</v>
+        <v>70912</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Receita bruta de revenda e de comissões sobre venda</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>12618368</v>
+        <v>70403</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Receita bruta de revenda e de comissões sobre venda</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15275730</v>
+        <v>68814</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Receita bruta de revenda e de comissões sobre venda</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>16731356</v>
+        <v>68447</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Receita bruta de revenda e de comissões sobre venda</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>18389170</v>
+        <v>69595</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Receita bruta de revenda e de comissões sobre venda</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>18163062</v>
+        <v>74661</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Receita bruta de revenda e de comissões sobre venda</t>
+          <t>Pessoal ocupado em 31/12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>R$ milhões</t>
+          <t>Pessoas</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>19135979</v>
+        <v>77365</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2234,12 +2234,12 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>20212313</v>
+        <v>11609009</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2252,12 +2252,12 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22166593</v>
+        <v>12618368</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2270,12 +2270,12 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>24013177</v>
+        <v>15275730</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>23882006</v>
+        <v>16731356</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2306,12 +2306,12 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>31110561</v>
+        <v>18389170</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2324,156 +2324,156 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>37733476</v>
+        <v>18163062</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8785</v>
+        <v>19135979</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>9907</v>
+        <v>20212313</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>9990</v>
+        <v>22166593</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>11265</v>
+        <v>24013177</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>11326</v>
+        <v>23882006</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>10715</v>
+        <v>31095253</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>11224</v>
+        <v>37525212</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Unidades locais</t>
+          <t>Receita bruta de revenda e de comissões sobre venda</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Unidades</t>
+          <t>R$ milhões</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>10634</v>
+        <v>39109770</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2486,12 +2486,12 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11121</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2504,12 +2504,12 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>10356</v>
+        <v>9907</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2522,12 +2522,12 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>9494</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2540,25 +2540,187 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>10303</v>
+        <v>11265</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>11326</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>10715</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>11224</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>10634</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>11121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>9494</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>10287</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
         <v>2022</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Unidades locais</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Unidades</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>11517</v>
+      <c r="D126" t="n">
+        <v>11485</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Unidades locais</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Unidades</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>12238</v>
       </c>
     </row>
   </sheetData>
